--- a/Mise_a_niveau_annuelle.xlsx
+++ b/Mise_a_niveau_annuelle.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>Documentation à lire</t>
+  </si>
+  <si>
+    <t>Syslog-NG</t>
   </si>
 </sst>
 </file>
@@ -136,9 +139,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -146,6 +146,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -452,7 +455,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,108 +473,112 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="7">
+        <v>43622</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="6"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="6"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="6"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="7"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="7"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="7"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="7"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="6"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="7"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="6"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>

--- a/Mise_a_niveau_annuelle.xlsx
+++ b/Mise_a_niveau_annuelle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Date</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>Syslog-NG</t>
+  </si>
+  <si>
+    <t>Cron</t>
   </si>
 </sst>
 </file>
@@ -128,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -149,6 +152,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -455,7 +461,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,8 +487,12 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="8">
+        <v>43623</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>

--- a/Mise_a_niveau_annuelle.xlsx
+++ b/Mise_a_niveau_annuelle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>Cron</t>
+  </si>
+  <si>
+    <t>Systemd</t>
+  </si>
+  <si>
+    <t>MAJ Documentation</t>
   </si>
 </sst>
 </file>
@@ -131,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -155,6 +161,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -458,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,36 +480,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>43622</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>43623</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="6"/>
-    </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="8">
+        <v>43628</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -591,14 +606,21 @@
       <c r="B27" s="6"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="6"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Mise_a_niveau_annuelle.xlsx
+++ b/Mise_a_niveau_annuelle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>MAJ Documentation</t>
+  </si>
+  <si>
+    <t>Logrotate</t>
   </si>
 </sst>
 </file>
@@ -470,7 +473,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,8 +521,12 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="8">
+        <v>43628</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>

--- a/Mise_a_niveau_annuelle.xlsx
+++ b/Mise_a_niveau_annuelle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Logrotate</t>
+  </si>
+  <si>
+    <t>SE Linux</t>
   </si>
 </sst>
 </file>
@@ -473,7 +476,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,8 +532,12 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="8">
+        <v>43636</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>

--- a/Mise_a_niveau_annuelle.xlsx
+++ b/Mise_a_niveau_annuelle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>SE Linux</t>
+  </si>
+  <si>
+    <t>SSH</t>
   </si>
 </sst>
 </file>
@@ -476,7 +479,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,8 +543,12 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="8">
+        <v>43637</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>

--- a/Mise_a_niveau_annuelle.xlsx
+++ b/Mise_a_niveau_annuelle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>SSH</t>
+  </si>
+  <si>
+    <t>OpenSSL</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,8 +554,12 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="8">
+        <v>43638</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>

--- a/Mise_a_niveau_annuelle.xlsx
+++ b/Mise_a_niveau_annuelle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>OpenSSL</t>
+  </si>
+  <si>
+    <t>PAM</t>
   </si>
 </sst>
 </file>
@@ -482,7 +485,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,8 +565,12 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="8">
+        <v>43641</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>

--- a/Mise_a_niveau_annuelle.xlsx
+++ b/Mise_a_niveau_annuelle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>PAM</t>
+  </si>
+  <si>
+    <t>Cgroups</t>
   </si>
 </sst>
 </file>
@@ -485,7 +488,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,8 +576,12 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="8">
+        <v>43642</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>

--- a/Mise_a_niveau_annuelle.xlsx
+++ b/Mise_a_niveau_annuelle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Cgroups</t>
+  </si>
+  <si>
+    <t>LDAP</t>
   </si>
 </sst>
 </file>
@@ -488,7 +491,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,8 +587,12 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="8">
+        <v>43656</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>

--- a/Mise_a_niveau_annuelle.xlsx
+++ b/Mise_a_niveau_annuelle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>LDAP</t>
+  </si>
+  <si>
+    <t>Shell scripting</t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,8 +598,12 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="8">
+        <v>43662</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>

--- a/Mise_a_niveau_annuelle.xlsx
+++ b/Mise_a_niveau_annuelle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Shell scripting</t>
+  </si>
+  <si>
+    <t>REGEX/Globbing</t>
   </si>
 </sst>
 </file>
@@ -494,7 +497,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,8 +609,12 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="8">
+        <v>43340</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>

--- a/Mise_a_niveau_annuelle.xlsx
+++ b/Mise_a_niveau_annuelle.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B14F400-C8F9-4678-8A36-ACB3F480A11E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -61,12 +62,15 @@
   </si>
   <si>
     <t>REGEX/Globbing</t>
+  </si>
+  <si>
+    <t>Suricata</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -202,6 +206,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -250,7 +257,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -283,9 +290,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,6 +342,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -493,11 +534,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,15 +651,19 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <v>43340</v>
+        <v>43705</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="8">
+        <v>43725</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
@@ -690,7 +735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -702,7 +747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Mise_a_niveau_annuelle.xlsx
+++ b/Mise_a_niveau_annuelle.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B14F400-C8F9-4678-8A36-ACB3F480A11E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B858C498-4888-43B6-984F-9CC175DD16BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Suricata</t>
+  </si>
+  <si>
+    <t>Graylog</t>
   </si>
 </sst>
 </file>
@@ -538,7 +541,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,8 +669,12 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="8">
+        <v>43727</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
